--- a/6.Process/BOM/Cubli_Control_Board.xlsx
+++ b/6.Process/BOM/Cubli_Control_Board.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CF0CD8D-8049-45C4-94CD-887D4B844CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\Cubli_Mini\6.Process\BOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E27B72D-4019-43AE-B661-DFD72CC23A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10755" yWindow="5490" windowWidth="19995" windowHeight="15435" xr2:uid="{7DEB8FDD-61E3-4548-A7A5-DEEE206C3FC4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{7DEB8FDD-61E3-4548-A7A5-DEEE206C3FC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cubli_Control_Board" sheetId="1" r:id="rId1"/>
@@ -28,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="246">
   <si>
     <t>Comment</t>
   </si>
@@ -210,9 +215,6 @@
     <t>D9</t>
   </si>
   <si>
-    <t>MF-MSMF250/16X-2</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -222,18 +224,12 @@
     <t>JK</t>
   </si>
   <si>
-    <t>JK-SMD0805-300L</t>
-  </si>
-  <si>
     <t>F2</t>
   </si>
   <si>
     <t>F0805</t>
   </si>
   <si>
-    <t>33uH ±20% 2A</t>
-  </si>
-  <si>
     <t>L1</t>
   </si>
   <si>
@@ -252,9 +248,6 @@
     <t>ANT2051</t>
   </si>
   <si>
-    <t>22uH ±20% 3A</t>
-  </si>
-  <si>
     <t>L4</t>
   </si>
   <si>
@@ -325,9 +318,6 @@
   </si>
   <si>
     <t>0402 120Ω (1200) 1%</t>
-  </si>
-  <si>
-    <t>56Ω ±1%</t>
   </si>
   <si>
     <t>R5, R6, R7, R8, R9, R10</t>
@@ -659,12 +649,377 @@
       <t>贴片电阻</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>途径</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>链接</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/107097.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/360044.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3232963.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/299692.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/1054203.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/16204.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/77832.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3002614.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/729802.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-1.0-7PWT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3039047.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HC-1.0-5PWT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3039045.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESD5Z3.3C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3261722.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3119637.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/85432.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/85435.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LESD5D5.0CT1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/356518.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/85436.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JK-SMD0805-300L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF-MSMF250/16X-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/211716.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3034451.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33uH ±20% 2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/160911.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AN2051-245</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.40582e8dWqLc0W&amp;id=558699169012&amp;_u=m1jbj7pb6d0d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>淘宝</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.40582e8dWqLc0W&amp;id=635409903966&amp;_u=m1jbj7pb7fbc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDR1.27-LI-6P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3809.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22uH ±20% 3A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/760391.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH2.0-WS-2P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/698563.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AO3400A_C700953</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/736021.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP2300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/335325.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS8050</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/192557.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AP2335</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/2976808.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/305682.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/293680.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56Ω ±1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/25870.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/103962.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/53049.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/199477.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/226431.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/288650.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/251122.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/279163.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/251116.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/302407.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/3186280.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LSSAM12-V-T/R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/507364.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTSML-31S-V-T/R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/507328.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不需要</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TJA1040T/CM,118</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/7423.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN3300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/53389.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CM1010-A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/2785219.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRV8313PWPR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/93675.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TPS5430DDAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/10396.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMS1117-3.3V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/184775.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.szlcsc.com/2901843.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>立创商城</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -693,6 +1048,15 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -708,7 +1072,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -731,13 +1095,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,9 +1137,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1064,16 +1464,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0842BE63-0B49-4588-BCDC-58EAFF81E8A0}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="6" width="15.625" customWidth="1"/>
+    <col min="8" max="8" width="69.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,13 +1495,19 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
@@ -1112,13 +1521,19 @@
       <c r="F2" s="3">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
@@ -1132,13 +1547,19 @@
       <c r="F3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -1152,13 +1573,19 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>19</v>
@@ -1172,13 +1599,19 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>21</v>
@@ -1192,13 +1625,19 @@
       <c r="F6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>24</v>
@@ -1212,13 +1651,19 @@
       <c r="F7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>27</v>
@@ -1232,13 +1677,19 @@
       <c r="F8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>30</v>
@@ -1252,8 +1703,14 @@
       <c r="F9" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
@@ -1272,13 +1729,19 @@
       <c r="F10" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>38</v>
@@ -1292,8 +1755,14 @@
       <c r="F11" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -1312,10 +1781,16 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>42</v>
@@ -1332,10 +1807,16 @@
       <c r="F13" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>42</v>
@@ -1352,10 +1833,16 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>48</v>
+        <v>181</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>42</v>
@@ -1372,8 +1859,14 @@
       <c r="F15" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>51</v>
       </c>
@@ -1392,13 +1885,19 @@
       <c r="F16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>54</v>
@@ -1407,18 +1906,24 @@
         <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>56</v>
@@ -1427,15 +1932,21 @@
         <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F18" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>57</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>42</v>
@@ -1452,13 +1963,19 @@
       <c r="F19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>59</v>
@@ -1467,715 +1984,986 @@
         <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>60</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>189</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>193</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>201</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F27" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F29" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>209</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F30" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F32" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F33" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>215</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F34" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F35" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F38" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F40" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F41" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F42" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F44" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F46" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F47" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>140</v>
+        <v>232</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F48" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F49" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>146</v>
+        <v>236</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F50" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F51" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F52" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>154</v>
+        <v>240</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>157</v>
+        <v>242</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F54" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F55" s="3">
         <v>1</v>
       </c>
+      <c r="G55" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{E22515AA-E26D-40EB-9116-AEE1F291F9B7}"/>
+    <hyperlink ref="H3" r:id="rId2" xr:uid="{FDA6711E-58B9-4EF7-8F78-4F4D7E5E85AA}"/>
+    <hyperlink ref="H4" r:id="rId3" xr:uid="{C5B0A849-42AF-4D69-B379-55A9B54E0130}"/>
+    <hyperlink ref="H5" r:id="rId4" xr:uid="{865A11A6-C4C3-410F-A383-7E9E78CEA60E}"/>
+    <hyperlink ref="H6" r:id="rId5" xr:uid="{BC525910-AD1F-4EA8-808F-93C3F420157F}"/>
+    <hyperlink ref="H7" r:id="rId6" xr:uid="{ADD9EE5A-89F6-4D70-A590-76DA4E5FFC83}"/>
+    <hyperlink ref="H8" r:id="rId7" xr:uid="{06F14E4A-577D-4BB2-9766-FD97F70BC6B3}"/>
+    <hyperlink ref="H9" r:id="rId8" xr:uid="{A1349F50-51E3-4963-AB56-260F31310E32}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{FE8E8251-C45B-4564-A0AD-0312814ADF74}"/>
+    <hyperlink ref="H11" r:id="rId10" xr:uid="{A06001FC-F4BD-441C-8174-4CF006468AFB}"/>
+    <hyperlink ref="H12" r:id="rId11" xr:uid="{8C8D819E-AADF-44F7-B6A7-780AF8330FC7}"/>
+    <hyperlink ref="H13" r:id="rId12" xr:uid="{3A65F7E9-C15F-40BE-A224-AF1ADCDF5163}"/>
+    <hyperlink ref="H14" r:id="rId13" xr:uid="{E150F540-3D55-40B8-B6C6-C5FCA5B2CE62}"/>
+    <hyperlink ref="H15" r:id="rId14" xr:uid="{EECDEBF7-D502-4065-94CD-CA313D383501}"/>
+    <hyperlink ref="H16" r:id="rId15" xr:uid="{FAE3378A-81CE-4075-9649-28D916D4FCE0}"/>
+    <hyperlink ref="H17" r:id="rId16" xr:uid="{E39693D0-2092-4CD3-A21C-8063EF747EAB}"/>
+    <hyperlink ref="H20" r:id="rId17" xr:uid="{4097CE03-28FC-4D7A-9D60-126ADD3DF7DC}"/>
+    <hyperlink ref="H19" r:id="rId18" xr:uid="{0ED52E72-8CFA-417C-B348-8C94CA840019}"/>
+    <hyperlink ref="H18" r:id="rId19" xr:uid="{8785F200-9C49-4433-B04E-A618E7A8641C}"/>
+    <hyperlink ref="H21" r:id="rId20" xr:uid="{A88FB3C0-AD56-4828-B816-780A198CAA2C}"/>
+    <hyperlink ref="H22" r:id="rId21" xr:uid="{EAFFC7CA-B7F9-412F-A72E-0B1C938830D6}"/>
+    <hyperlink ref="H23" r:id="rId22" xr:uid="{14E38CFC-9DE2-49E7-8155-3AFDFD3405A5}"/>
+    <hyperlink ref="H24" r:id="rId23" xr:uid="{5728283F-6D81-46CF-8D77-C7E4A2DC397E}"/>
+    <hyperlink ref="H51" r:id="rId24" xr:uid="{9ED33949-B9BD-4601-B444-B1B0CB6E68D2}"/>
+    <hyperlink ref="H26" r:id="rId25" xr:uid="{A4883510-18C4-4D68-88E1-36E5D8191D39}"/>
+    <hyperlink ref="H25" r:id="rId26" xr:uid="{B38D4172-E681-4E95-ACC0-A966E198E6B4}"/>
+    <hyperlink ref="H27" r:id="rId27" xr:uid="{7F80FB31-3C3B-465A-9711-6A368568CAC6}"/>
+    <hyperlink ref="H28" r:id="rId28" xr:uid="{D3D2FEEA-87BF-47B4-9624-80E853C7DE56}"/>
+    <hyperlink ref="H29" r:id="rId29" xr:uid="{1123275E-2334-4E3D-9910-DD8F23213163}"/>
+    <hyperlink ref="H30" r:id="rId30" xr:uid="{0F4D9F65-45D3-4C82-88B2-04DFE62F9725}"/>
+    <hyperlink ref="H31" r:id="rId31" xr:uid="{69DD5325-D270-4238-85A4-E1118FCCEE13}"/>
+    <hyperlink ref="H32" r:id="rId32" xr:uid="{464E7F9A-536E-4232-8D18-1D327DF6D9A2}"/>
+    <hyperlink ref="H33" r:id="rId33" xr:uid="{F9B16676-EFA4-4487-A318-34EECBCD4C33}"/>
+    <hyperlink ref="H34" r:id="rId34" xr:uid="{945FA354-56FB-4650-8397-6F0271D716BD}"/>
+    <hyperlink ref="H35" r:id="rId35" xr:uid="{9FEB070B-185B-4811-A688-1D28D47D2AEF}"/>
+    <hyperlink ref="H36" r:id="rId36" xr:uid="{89BCB19F-7BD2-4E56-892E-4DB3CA146B4A}"/>
+    <hyperlink ref="H37" r:id="rId37" xr:uid="{C06EEE2D-0456-4800-9F13-D71145F66516}"/>
+    <hyperlink ref="H38" r:id="rId38" xr:uid="{26015F61-A1DD-4684-AF29-A5EB878A01FC}"/>
+    <hyperlink ref="H39" r:id="rId39" xr:uid="{8A4455B0-2979-4689-86E7-46DD8D14477E}"/>
+    <hyperlink ref="H40" r:id="rId40" xr:uid="{8F252541-A798-41DC-8C27-AD16C3FE6148}"/>
+    <hyperlink ref="H41" r:id="rId41" xr:uid="{9BE3BD46-4B6D-4083-8786-71A02B75CE7E}"/>
+    <hyperlink ref="H42" r:id="rId42" xr:uid="{148DC592-E28C-4638-AF8E-D311FC4489CC}"/>
+    <hyperlink ref="H43" r:id="rId43" xr:uid="{E569776A-7F31-4A22-9550-A60AECA7C601}"/>
+    <hyperlink ref="H44" r:id="rId44" xr:uid="{301F8172-D1D3-42E1-A98D-9536DA74DFBE}"/>
+    <hyperlink ref="H45" r:id="rId45" xr:uid="{E588C411-B86D-4212-94E9-B57B1F447CDC}"/>
+    <hyperlink ref="H46" r:id="rId46" xr:uid="{4FFB38B4-A2B4-4E04-BD42-A759A05A99C4}"/>
+    <hyperlink ref="H48" r:id="rId47" xr:uid="{C1D38411-986B-449E-B41A-61D6309596B6}"/>
+    <hyperlink ref="H49" r:id="rId48" xr:uid="{C3B36024-CB66-4F96-998F-F8D4F144983D}"/>
+    <hyperlink ref="H50" r:id="rId49" xr:uid="{CD546B9B-C20E-4F6C-94DF-252EE111E993}"/>
+    <hyperlink ref="H52" r:id="rId50" xr:uid="{CBF7AF9B-C9CD-434B-B4F9-CDB771A6BBCD}"/>
+    <hyperlink ref="H53" r:id="rId51" xr:uid="{95D2E59C-C004-4F4B-9626-1F3F06D19C61}"/>
+    <hyperlink ref="H54" r:id="rId52" xr:uid="{258E5E82-2A54-435C-8F27-7A6DC7554FA8}"/>
+    <hyperlink ref="H55" r:id="rId53" xr:uid="{1B028C40-0D80-4E6F-A1FE-C134A2793363}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>